--- a/backend/outputs/classifications_remove_data_steps_probe_yes.xlsx
+++ b/backend/outputs/classifications_remove_data_steps_probe_yes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>theme</t>
+          <t>participant_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>participant_id</t>
+          <t>response</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>quote</t>
+          <t>assigned_themes</t>
         </is>
       </c>
     </row>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Concerns Over Data Security</t>
+          <t>P4434</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P4435</t>
+          <t>do not leave data all over the place</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ID theft tears ago</t>
+          <t>Privacy Concerns</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Concerns Over Data Security</t>
+          <t>P4435</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P4449</t>
+          <t>ID theft tears ago</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Being hacked</t>
+          <t>Security Motivations</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Concerns Over Data Security</t>
+          <t>P4444</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P4547</t>
+          <t>Because I don't want nobody knowing my identity.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fraud on my bank account.</t>
+          <t>Privacy Concerns</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Desire for Privacy Control</t>
+          <t>P4449</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P4468</t>
+          <t>Being hacked</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>I don’t want anymore information out there than necessary</t>
+          <t>Security Motivations</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Desire for Privacy Control</t>
+          <t>P4450</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P4473</t>
+          <t>I locked my Facebook page</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>I want less information about me available to the public</t>
+          <t>Desire for Control</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Desire for Privacy Control</t>
+          <t>P4451</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P4804</t>
+          <t>No. It’s cumbersome.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>the privacy</t>
+          <t>Satisfaction with Data Deletion Processes</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Frustration with Data Deletion Processes</t>
+          <t>P4453</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P4451</t>
+          <t>I don’t want my personal information to be used to open up potential lines of financial gain.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>No. It’s cumbersome.</t>
+          <t>Privacy Concerns</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Frustration with Data Deletion Processes</t>
+          <t>P4457</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P4535</t>
+          <t>I knew the sites I visited were being tracked and cookies put on my computer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Not too satisfied, I am not up to all the latest information on how best to do this.</t>
+          <t>Frustration with Current Solutions</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Frustration with Data Deletion Processes</t>
+          <t>P4459</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P4808</t>
+          <t>Too many ti.es you can get spam messages such as emails from certain things and it's so annoying.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>It could be a LOT simpler and more transparent</t>
+          <t>Frustration with Current Solutions</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mixed Satisfaction with Outcomes</t>
+          <t>P4460</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P4471</t>
+          <t>The ability to secure and make sure my data is safe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>yes and no - not sure how 'deleted' it really is</t>
+          <t>Security Motivations</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mixed Satisfaction with Outcomes</t>
+          <t>P4467</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>P4728</t>
+          <t>Didn't trust the site</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Not really contented</t>
+          <t>Frustration with Current Solutions</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mixed Satisfaction with Outcomes</t>
+          <t>P4468</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P4812</t>
+          <t>I don’t want anymore information out there than necessary</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>it's hard to gauge - sometimes I live in a nebulous fear, not knowing if my efforts are enough</t>
+          <t>Desire for Control</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proactive Measures for Online Safety</t>
+          <t>P4470</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>P4480</t>
+          <t>When they shared my info with other sites without my knowledge or permission.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>I take off everything if I'm not using it just to protect us</t>
+          <t>Privacy Concerns</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proactive Measures for Online Safety</t>
+          <t>P4471</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>P4553</t>
+          <t>I felt it was a good idea. You can't be too careful these days.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Googling myself. Information is available that I never made available to the general public.</t>
+          <t>Desire for Control</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,985 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proactive Measures for Online Safety</t>
+          <t>P4473</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>I want less information about me available to the public</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P4475</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Don’t want random people having personal information</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P4477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>I don't like my information to be available and I don't like being tracked</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P4479</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The need to have less digital footprint</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P4480</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>i want to let of shows on on tv as far as netflix and stuff like that with data breaches and all kinds of stuff so i mean it's a it's a pretty scary world that we're living in and the best protection is keep the vpn in place so that secure my my granddaughter secure and the rest of my family is secure because i mean god forbid if anything should happened with and unsecured computer system</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P4481</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>I think it is a great step to be careful about our privacy and comfort.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P4483</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>For more security that's all.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P4484</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Being hacked</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>P4510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SOME OF THE EMAILS I HAVE RECEIVED, ADS ETC. SOME HAVE ALERTS ABOUT SAFE WEBSITE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Frustration with Current Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P4514</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>My credit card was used and I don't know who used it to purchase stuff online</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P4520</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>If it's a site I always use or if I'm just going there because I saw something</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P4524</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Just don’t keep history</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P4528</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>used an internet data cleansing service after emails stolen</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P4531</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Hackers</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>P4535</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Websites that I no longer use having my information. Or I am doing things like blocking the tracking and refusing third party cookies.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Frustration with Current Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>P4543</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>I want the least amount of my information out in the world, which includes not being on any social media sites.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>P4547</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fraud on my bank account.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P4549</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The things that lead me to make the decision to delete my personal data from websites/online databases are to have more privacy and fewer spam texts, emails, and/or calls.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>P4550</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Make my social media private</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>P4553</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Googling myself. Information is available that I never made available to the general public. I have no idea how, when, or why it wound up on the net.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Frustration with Current Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>P4566</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>My credit card was stolen but in my wallet The thieves used the number on my card but my card was in my wallet I had just gotten off the credit card site after paying my monthly bill then not 10 minutes later someone stole the number and used it to try to buy 500 dollars sneakers</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>P4711</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Data leaks from those websites.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Frustration with Current Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>P4724</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>I want to make sure that sensitive information isn’t saved for future use</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>P4728</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>To be anonymous in my daily use of the Internet</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>P4732</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>cybersecurity issues at other companies</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>P4746</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Just dont need all my data out there.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>P4748</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>for security purposes</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>P4749</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Knowing my data was breached</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>P4756</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Online identity monitoring</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Frustration with Current Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>P4763</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>I want to live a private life</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>P4775</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>There are so many mentions now of data leaks with companies</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Frustration with Current Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>P4804</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>the privacy</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>P4805</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>being able to do things without being watched</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>P4807</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A report on my credit that was false</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Frustration with Current Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>P4808</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>well it just seems that there's it you it's it's scary easy it is for people to get access to your data it's especially scary because companies there's literally es sorry another car is passing there's a little box on a lot of websites that you can check do not sell sell my data they're just selling your diet for five dollars you know that's we anybody can just pay them five dollars and have everything that company has on you it's it's scary so i started taking measures to make sure that that won't happen to me you know you can get your get your account hacked you could but that's like on the lower end you could have your high identity stolen you could get ddos swat it's really it's it's scary nowadays</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>P4809</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Doxxing concerns and spam contact</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>P4810</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>To keep my ID secure.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>P4812</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>I have changed my passwords regularly and try to delete my caches in timely manners</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>P4813</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The primary reason made me pursue this was I just love looking at data. It really makes me feel all well rounded. It makes me feel at work.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Desire for Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>P4814</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Bots making fake identities and using your profile picture and info</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>P4820</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>to be vigilant of all the important bank transactions</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>P4825</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>protects privacy from hackers on the internet to help you stay safe</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Security Motivations</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>P4832</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Too much spam</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Frustration with Current Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>P4840</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Just rather my data not be out there and vulnerable</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_yes</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>P4843</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>For more privacy, I dont like how easy it is for people to be able to look up my name and find information on me like, where I live, etc.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Privacy Concerns</t>
         </is>
       </c>
     </row>
